--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712031.7618101345</v>
+        <v>716241.244930189</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584669</v>
+        <v>460545.8926584663</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7573146.659318187</v>
+        <v>7573146.659318188</v>
       </c>
     </row>
     <row r="11">
@@ -659,67 +659,67 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>72.17219322017502</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -959,7 +959,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>89.20720739599011</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.8943652679175</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>7.314269821847303</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>145.4287699906872</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,34 +1309,34 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>155.8306738365922</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>10.82006522952092</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,7 +1461,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>118.6074828426214</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1506,7 +1506,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>67.26886741877343</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1549,7 +1549,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.35315769505105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>363.4675611711046</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>184.3525623307112</v>
       </c>
     </row>
     <row r="15">
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>219.9881595201824</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464796</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>43.03218749909099</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1889,25 +1889,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>222.0587096210282</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>215.9776011748348</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>114.7196543111938</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>84.48745916175817</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571426</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>9.384487174102901</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>43.0321874990911</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>213.4657508608907</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.58919363706276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>36.29588146532114</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>35.39908632027053</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26585203414595</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>36.06469575475733</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>190.7667448597495</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>22.51344238960121</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2403,10 +2403,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
@@ -2415,7 +2415,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>6.673890207337554</v>
+        <v>61.12808787351286</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>80.81184541373385</v>
+        <v>103.3189067219407</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>117.889549819912</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>212.5895090690026</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>167.0918869329224</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>75.49458165574123</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>121.7339476000079</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>149.7232056537448</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>167.0422527619078</v>
+        <v>40.50200227544348</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2919,13 +2919,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>219.9881595201828</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>192.1204999775668</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>44.78750666756753</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>158.6739513577855</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.415335073865</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3123,10 +3123,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>10.26473456986149</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>61.61837957888187</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.83786409935511</v>
+        <v>59.57056692594167</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.089049841944</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -3320,10 +3320,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>184.2711551363581</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.54162220752061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>42.43009544057933</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3363,7 +3363,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3402,13 +3402,13 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>9.227178156183182</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>23.23003910816269</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>89.14352724124579</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>108.4745897976403</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3518,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>275.197063589395</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>10.73855991483607</v>
+        <v>101.6323748713285</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>110.970532483588</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.1611518470178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>105.204262815368</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.06925856174157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>106.2387529750474</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>29.38391736390409</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.0528257834116</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>210.7159206761549</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>124.8047215796738</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4104,13 +4104,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>47.57524030408229</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>46.85989468835346</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>123.2952177189539</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>231.667306453287</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>231.667306453287</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>380.6017161145382</v>
       </c>
     </row>
     <row r="4">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4595,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.3894334091926</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4653,16 +4653,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6891097854671</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>614.502515144233</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X6" t="n">
-        <v>277.6047704292607</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y6" t="n">
-        <v>277.6047704292607</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4838,16 +4838,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>140.7925626906184</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>27.42342709819773</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4890,43 +4890,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N9" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N9" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>817.1594080452955</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>588.9357897816847</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>353.783681549942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>876.152668748367</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="C11" t="n">
-        <v>876.152668748367</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="D11" t="n">
-        <v>876.152668748367</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="E11" t="n">
-        <v>876.152668748367</v>
+        <v>1198.89597115877</v>
       </c>
       <c r="F11" t="n">
-        <v>465.1667639587595</v>
+        <v>787.9100663691629</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>369.6382988520477</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
@@ -5042,49 +5042,49 @@
         <v>137.0453218915532</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2016.589854876112</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2005.660496058415</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1652.8918407883</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1652.8918407883</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y11" t="n">
-        <v>1262.752508812489</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>821.6754629010843</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>647.2224336199573</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2224336199573</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9849786145018</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4504206413868</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5118,22 +5118,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.568096156131</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
         <v>2193.291384540003</v>
@@ -5151,19 +5151,19 @@
         <v>2123.072528197426</v>
       </c>
       <c r="U12" t="n">
-        <v>1894.892063851583</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V12" t="n">
-        <v>1659.739955619841</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1405.502598891639</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>1197.651098686106</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>989.8907999211524</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>515.4926565726222</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>346.3547163191316</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>187.3781536425449</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>515.4926565726222</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1757.628112035911</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="C14" t="n">
-        <v>1757.628112035911</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2124.767062713794</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U14" t="n">
-        <v>2124.767062713794</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V14" t="n">
-        <v>2124.767062713794</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="W14" t="n">
-        <v>2124.767062713794</v>
+        <v>1403.349621515537</v>
       </c>
       <c r="X14" t="n">
-        <v>1757.628112035911</v>
+        <v>1029.883863254457</v>
       </c>
       <c r="Y14" t="n">
-        <v>1757.628112035911</v>
+        <v>843.6691538294961</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076318</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5382,13 +5382,13 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V15" t="n">
         <v>1826.94371292353</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H16" t="n">
         <v>46.89499644164432</v>
@@ -5437,49 +5437,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>564.3017173766223</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2126.590628976322</v>
+        <v>1311.833790527302</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.628112035911</v>
+        <v>1311.833790527302</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1642.896677870872</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1311.833790527302</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>1311.833790527302</v>
       </c>
       <c r="X17" t="n">
-        <v>2126.590628976322</v>
+        <v>1311.833790527302</v>
       </c>
       <c r="Y17" t="n">
-        <v>2126.590628976322</v>
+        <v>1311.833790527302</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>508.1234744593334</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="D18" t="n">
-        <v>359.1890647980821</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E18" t="n">
-        <v>199.9516097926266</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5595,49 +5595,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>56.37427641548564</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5695,28 +5695,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>225.5122166689762</v>
+        <v>564.3017173766223</v>
       </c>
       <c r="W19" t="n">
-        <v>225.5122166689762</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.5122166689762</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1757.628112035911</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="C20" t="n">
-        <v>1757.628112035911</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.628112035911</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H20" t="n">
         <v>212.2335778049849</v>
@@ -5750,16 +5750,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>2129.12785151566</v>
       </c>
       <c r="U20" t="n">
-        <v>1796.607095507691</v>
+        <v>2129.12785151566</v>
       </c>
       <c r="V20" t="n">
-        <v>1796.607095507691</v>
+        <v>2129.12785151566</v>
       </c>
       <c r="W20" t="n">
-        <v>1796.607095507691</v>
+        <v>1776.359196245546</v>
       </c>
       <c r="X20" t="n">
-        <v>1796.607095507691</v>
+        <v>1402.893437984466</v>
       </c>
       <c r="Y20" t="n">
-        <v>1757.628112035911</v>
+        <v>1402.893437984466</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D21" t="n">
-        <v>447.6797356739884</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E21" t="n">
-        <v>288.4422806685329</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F21" t="n">
-        <v>252.6856278197748</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,16 +5832,16 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
         <v>1887.88481026779</v>
@@ -5853,28 +5853,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>389.6911229952046</v>
+        <v>90.597877284216</v>
       </c>
       <c r="C22" t="n">
-        <v>389.6911229952046</v>
+        <v>90.597877284216</v>
       </c>
       <c r="D22" t="n">
-        <v>389.6911229952046</v>
+        <v>90.597877284216</v>
       </c>
       <c r="E22" t="n">
-        <v>389.6911229952046</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
         <v>46.89499644164432</v>
@@ -5941,19 +5941,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X22" t="n">
-        <v>571.3395878254443</v>
+        <v>90.597877284216</v>
       </c>
       <c r="Y22" t="n">
-        <v>571.3395878254443</v>
+        <v>90.597877284216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>438.5983642806431</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="C23" t="n">
-        <v>69.63584734023141</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="D23" t="n">
-        <v>69.63584734023141</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E23" t="n">
-        <v>69.63584734023141</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F23" t="n">
-        <v>69.63584734023141</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G23" t="n">
-        <v>69.63584734023141</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5987,16 +5987,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2161.554709220192</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T23" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U23" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V23" t="n">
-        <v>1941.571949851771</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W23" t="n">
-        <v>1588.803294581656</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X23" t="n">
-        <v>1215.337536320577</v>
+        <v>1345.864872018174</v>
       </c>
       <c r="Y23" t="n">
-        <v>825.1982043447649</v>
+        <v>955.7255400423619</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>982.9090180005296</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>808.4559887194026</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>659.5215790581514</v>
       </c>
       <c r="E24" t="n">
-        <v>298.7453260127371</v>
+        <v>500.2841240526959</v>
       </c>
       <c r="F24" t="n">
-        <v>298.7453260127371</v>
+        <v>353.7495660795809</v>
       </c>
       <c r="G24" t="n">
-        <v>160.6704401454292</v>
+        <v>215.6746802122729</v>
       </c>
       <c r="H24" t="n">
-        <v>53.63629968137923</v>
+        <v>108.640539748223</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6069,22 +6069,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6093,25 +6093,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>2056.125618951029</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1820.973510719286</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1566.736153991084</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1358.884653785552</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>1151.124355020598</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="C25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="D25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="E25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="F25" t="n">
-        <v>271.4559585498841</v>
+        <v>356.5160938960355</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3180182963936</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3180182963936</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
         <v>46.89499644164432</v>
@@ -6172,25 +6172,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>526.140446755771</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="T25" t="n">
-        <v>526.140446755771</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="U25" t="n">
-        <v>526.140446755771</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="V25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="W25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="X25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.4559585498841</v>
+        <v>503.4060413939459</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1192.394979505922</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C26" t="n">
-        <v>823.4324625655099</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D26" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E26" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
         <v>46.89499644164432</v>
@@ -6224,16 +6224,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>2130.012944234739</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U26" t="n">
-        <v>1876.226522119606</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V26" t="n">
-        <v>1545.163634776036</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W26" t="n">
-        <v>1192.394979505922</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X26" t="n">
-        <v>1192.394979505922</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y26" t="n">
-        <v>1192.394979505922</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>814.129334229901</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C27" t="n">
-        <v>639.676304948774</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D27" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E27" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6330,25 +6330,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2115.526399526243</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>1887.3459351804</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1652.193826948657</v>
+        <v>1619.092212717997</v>
       </c>
       <c r="W27" t="n">
-        <v>1397.956470220456</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="X27" t="n">
-        <v>1190.104970014923</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y27" t="n">
-        <v>982.344671249969</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>338.7947628039027</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>169.8585798759958</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>169.8585798759958</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>169.8585798759958</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>169.8585798759958</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>169.8585798759958</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>169.8585798759958</v>
       </c>
       <c r="I28" t="n">
         <v>46.89499644164432</v>
@@ -6403,31 +6403,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R28" t="n">
-        <v>456.5330121699014</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S28" t="n">
-        <v>456.5330121699014</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T28" t="n">
-        <v>456.5330121699014</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U28" t="n">
-        <v>456.5330121699014</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V28" t="n">
-        <v>456.5330121699014</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W28" t="n">
-        <v>456.5330121699014</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X28" t="n">
-        <v>228.543461271884</v>
+        <v>338.7947628039027</v>
       </c>
       <c r="Y28" t="n">
-        <v>228.543461271884</v>
+        <v>338.7947628039027</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>626.6104494756032</v>
+        <v>253.1446912145238</v>
       </c>
       <c r="C29" t="n">
-        <v>626.6104494756032</v>
+        <v>253.1446912145238</v>
       </c>
       <c r="D29" t="n">
-        <v>626.6104494756032</v>
+        <v>253.1446912145238</v>
       </c>
       <c r="E29" t="n">
-        <v>626.6104494756032</v>
+        <v>253.1446912145238</v>
       </c>
       <c r="F29" t="n">
-        <v>215.6245446859957</v>
+        <v>253.1446912145238</v>
       </c>
       <c r="G29" t="n">
-        <v>215.6245446859957</v>
+        <v>253.1446912145238</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
         <v>762.591673824455</v>
@@ -6482,7 +6482,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
         <v>2270.376276991246</v>
@@ -6503,10 +6503,10 @@
         <v>1403.349621515537</v>
       </c>
       <c r="X29" t="n">
-        <v>1403.349621515537</v>
+        <v>1029.883863254457</v>
       </c>
       <c r="Y29" t="n">
-        <v>1013.210289539725</v>
+        <v>639.7445312786456</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P30" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6567,10 +6567,10 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U30" t="n">
         <v>2062.095821155272</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>187.3781536425449</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="C31" t="n">
-        <v>187.3781536425449</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="D31" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>187.3781536425449</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>453.4106385108907</v>
+        <v>2128.053995588337</v>
       </c>
       <c r="T31" t="n">
-        <v>453.4106385108907</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="U31" t="n">
-        <v>453.4106385108907</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="V31" t="n">
-        <v>453.4106385108907</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="W31" t="n">
-        <v>408.1707327860751</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="X31" t="n">
-        <v>408.1707327860751</v>
+        <v>1933.992884499886</v>
       </c>
       <c r="Y31" t="n">
-        <v>187.3781536425449</v>
+        <v>1933.992884499886</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>741.4728132886144</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="C32" t="n">
-        <v>372.5102963482026</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="D32" t="n">
-        <v>372.5102963482026</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="E32" t="n">
-        <v>372.5102963482026</v>
+        <v>726.987300295762</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2335778049849</v>
+        <v>316.0013955061544</v>
       </c>
       <c r="G32" t="n">
-        <v>212.2335778049849</v>
+        <v>316.0013955061544</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
         <v>762.5916738244549</v>
@@ -6722,28 +6722,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713795</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U32" t="n">
-        <v>1870.980640598662</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V32" t="n">
-        <v>1870.980640598662</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W32" t="n">
-        <v>1518.211985328548</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X32" t="n">
-        <v>1518.211985328548</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="Y32" t="n">
-        <v>1128.072653352736</v>
+        <v>1112.775552894006</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>814.129334229901</v>
+        <v>839.9448105435223</v>
       </c>
       <c r="C33" t="n">
-        <v>639.676304948774</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D33" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6780,13 +6780,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
         <v>1486.172378671464</v>
@@ -6810,19 +6810,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1913.161411494021</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1678.009303262279</v>
       </c>
       <c r="W33" t="n">
-        <v>1397.956470220456</v>
+        <v>1423.771946534077</v>
       </c>
       <c r="X33" t="n">
-        <v>1190.104970014923</v>
+        <v>1215.920446328544</v>
       </c>
       <c r="Y33" t="n">
-        <v>982.344671249969</v>
+        <v>1008.16014756359</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>365.947818781887</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D34" t="n">
         <v>46.89499644164432</v>
@@ -6889,19 +6889,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>63.90293997634646</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>63.90293997634646</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X34" t="n">
-        <v>63.90293997634646</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>547.5962836121267</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1209.220715163754</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="C35" t="n">
-        <v>1209.220715163754</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="D35" t="n">
-        <v>850.9550165570038</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="E35" t="n">
-        <v>465.1667639587595</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F35" t="n">
-        <v>465.1667639587595</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6938,10 +6938,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>1941.571949851771</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>1610.5090625082</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="W35" t="n">
-        <v>1610.5090625082</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.5090625082</v>
+        <v>1427.279502709952</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.820555227876</v>
+        <v>1427.279502709952</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>857.284873186858</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
         <v>814.4261909236466</v>
@@ -7017,7 +7017,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
         <v>491.2196383161158</v>
@@ -7050,16 +7050,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1695.349365905614</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1441.112009177413</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1233.26050897188</v>
+        <v>1196.639518969728</v>
       </c>
       <c r="Y36" t="n">
-        <v>1025.500210206926</v>
+        <v>988.8792202047736</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>210.842839610386</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>70.35968240948543</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
@@ -7126,19 +7126,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>228.543461271884</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y37" t="n">
-        <v>228.543461271884</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.940921346611</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="C38" t="n">
-        <v>1261.940921346611</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U38" t="n">
-        <v>1870.980640598662</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V38" t="n">
-        <v>1539.917753255091</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W38" t="n">
-        <v>1261.940921346611</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X38" t="n">
-        <v>1261.940921346611</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y38" t="n">
-        <v>1261.940921346611</v>
+        <v>1867.1984047608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>850.7918407605284</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C39" t="n">
-        <v>676.3388114794014</v>
+        <v>608.9132907734332</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E39" t="n">
         <v>506.2543262569397</v>
@@ -7251,7 +7251,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
         <v>121.6684232076319</v>
@@ -7275,28 +7275,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2183.516266982771</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T39" t="n">
-        <v>1983.973569036802</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U39" t="n">
-        <v>1755.793104690959</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V39" t="n">
-        <v>1520.640996459217</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W39" t="n">
-        <v>1266.403639731015</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X39" t="n">
-        <v>1058.552139525482</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.7918407605284</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>164.2294932568138</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>164.2294932568138</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>164.2294932568138</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X40" t="n">
-        <v>164.2294932568138</v>
+        <v>2116.760271184199</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>1895.967692040669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>992.1819995350043</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="C41" t="n">
-        <v>623.2194825945925</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="D41" t="n">
-        <v>623.2194825945925</v>
+        <v>483.5105379043384</v>
       </c>
       <c r="E41" t="n">
-        <v>623.2194825945925</v>
+        <v>483.5105379043384</v>
       </c>
       <c r="F41" t="n">
-        <v>212.2335778049849</v>
+        <v>483.5105379043384</v>
       </c>
       <c r="G41" t="n">
-        <v>212.2335778049849</v>
+        <v>483.5105379043384</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>153.1619285783797</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K41" t="n">
         <v>392.9020949275671</v>
@@ -7442,19 +7442,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1759.900512623513</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1407.131857353399</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X41" t="n">
-        <v>1033.666099092319</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.1819995350043</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>783.3663200545602</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C42" t="n">
-        <v>608.9132907734332</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D42" t="n">
-        <v>459.978881112182</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E42" t="n">
-        <v>300.7414261067265</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F42" t="n">
-        <v>154.2068681336114</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7494,46 +7494,46 @@
         <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>2084.763385350902</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U42" t="n">
-        <v>1856.582921005059</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V42" t="n">
-        <v>1621.430812773317</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.193456045115</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X42" t="n">
-        <v>1159.341955839582</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y42" t="n">
-        <v>951.5816570746283</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.68900634031877</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7591,28 +7591,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T43" t="n">
-        <v>379.8701515943957</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U43" t="n">
-        <v>90.68900634031877</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="V43" t="n">
-        <v>90.68900634031877</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="W43" t="n">
-        <v>90.68900634031877</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="X43" t="n">
-        <v>90.68900634031877</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.68900634031877</v>
+        <v>236.7148120170114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.684223757015</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C44" t="n">
-        <v>1584.684223757015</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D44" t="n">
-        <v>1371.839859437666</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V44" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.749822082216</v>
+        <v>1924.32814228982</v>
       </c>
       <c r="X44" t="n">
-        <v>1971.284063821136</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y44" t="n">
-        <v>1971.284063821136</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>735.3105217676085</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>560.8574924864815</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>411.9230828252303</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>252.6856278197748</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7734,16 +7734,16 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7752,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2236.250285009919</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>2036.70758706395</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U45" t="n">
-        <v>1808.527122718107</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V45" t="n">
-        <v>1573.375014486365</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1319.137657758163</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>1111.28615755263</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>903.5258587876765</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>149.6512452543264</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>149.6512452543264</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>149.6512452543264</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>149.6512452543264</v>
       </c>
       <c r="G46" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H46" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I46" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7837,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>483.2279494777709</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>228.543461271884</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W46" t="n">
-        <v>228.543461271884</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X46" t="n">
-        <v>228.543461271884</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y46" t="n">
-        <v>228.543461271884</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>237.9065809724248</v>
       </c>
       <c r="P12" t="n">
-        <v>101.9014378473434</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5094987082737</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998491</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>402.132053707116</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L36" t="n">
-        <v>154.2790145108656</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>108.5094987082737</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>154.2790145108655</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119838</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,25 +22589,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,19 +22626,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>72.89701917320886</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22796,7 +22796,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22835,10 +22835,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -22847,7 +22847,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>83.50129159232563</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22911,25 +22911,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>25.78880583592036</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22996,7 +22996,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,19 +23021,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23078,7 +23078,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23112,13 +23112,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>82.08236302956777</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>54.73595870413436</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23224,7 +23224,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>171.2144493961069</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23312,19 +23312,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>316.932193240614</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23349,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>18.0866541660135</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>165.5317197306518</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.2314956570437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.263539507364385</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>201.8853763253424</v>
       </c>
     </row>
     <row r="15">
@@ -23622,16 +23622,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>5.910500182201929</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555773</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23710,13 +23710,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>209.105455824737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23732,19 +23732,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>29.18984827295296</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>153.7534995036342</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,22 +23811,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>57.98884467712189</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>60.58175323162571</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>148.002309875718</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23935,25 +23935,25 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>209.1054558247369</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.317180913846784</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.6487450189908</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>130.2373021845462</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>109.6701260731134</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,7 +24066,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1681106124232</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24145,10 +24145,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>189.6449596342798</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>191.9670968037311</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>304.5316808430979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,10 +24263,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24291,10 +24291,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>60.3646978483767</v>
+        <v>5.910500182201396</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,10 +24333,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,10 +24382,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>133.7170228152067</v>
+        <v>111.2099615069998</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
@@ -24421,7 +24421,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>264.8442918435686</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.193422705734804</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24537,10 +24537,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,22 +24570,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>30.45538403358719</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>157.306005493684</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>17.34437802888364</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.091149922420556</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>160.0028704707913</v>
+        <v>286.5431209572556</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>5.910500182201503</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24883,13 +24883,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>33.49893764592863</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>241.7354916690235</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>248.2020943839259</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>60.62978815883406</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,13 +25050,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>215.6339251325228</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>190.0766035820377</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25129,10 +25129,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.7467892527397</v>
+        <v>159.0140864261531</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25208,10 +25208,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>143.4811033337768</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>371.696316448533</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>130.2784035477364</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25290,13 +25290,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>196.5458070472943</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,10 +25330,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>31.63875252803911</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25366,7 +25366,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>136.5661281477913</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,7 +25394,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>246.2084518230427</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>74.04390512801797</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>136.7065056498027</v>
+        <v>45.81269069331022</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>68.86144769834929</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25594,7 +25594,7 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25603,7 +25603,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.423501505077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>58.48093273433919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>345.168680094312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25719,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>30.45538403358744</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>37.65467069181015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>123.8907512989401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,10 +25804,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>6.025499845479942</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>143.967120944528</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>224.4362471377392</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25953,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>112.0459792443679</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>120.5866661626022</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26044,7 +26044,7 @@
         <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>162.9941160825823</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.6078130902</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.6078130902</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717933.8368685789</v>
+        <v>717933.836868579</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717933.8368685789</v>
+        <v>717933.8368685788</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717933.8368685789</v>
+        <v>717933.836868579</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717933.8368685787</v>
+        <v>717933.8368685789</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>717933.8368685787</v>
+        <v>717933.836868579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>717933.8368685787</v>
+        <v>717933.8368685789</v>
       </c>
     </row>
   </sheetData>
@@ -26326,31 +26326,31 @@
         <v>251157.2947760046</v>
       </c>
       <c r="G2" t="n">
-        <v>251157.2947760046</v>
+        <v>251157.2947760047</v>
       </c>
       <c r="H2" t="n">
         <v>251157.2947760046</v>
       </c>
       <c r="I2" t="n">
-        <v>251157.2947760046</v>
+        <v>251157.2947760047</v>
       </c>
       <c r="J2" t="n">
         <v>251157.2947760047</v>
       </c>
       <c r="K2" t="n">
-        <v>251157.2947760047</v>
+        <v>251157.2947760046</v>
       </c>
       <c r="L2" t="n">
-        <v>251157.2947760047</v>
+        <v>251157.2947760046</v>
       </c>
       <c r="M2" t="n">
-        <v>251157.2947760047</v>
+        <v>251157.2947760046</v>
       </c>
       <c r="N2" t="n">
         <v>251157.2947760047</v>
       </c>
       <c r="O2" t="n">
-        <v>251157.2947760046</v>
+        <v>251157.2947760047</v>
       </c>
       <c r="P2" t="n">
         <v>251157.2947760046</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007599</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>42505.34661045596</v>
+        <v>42017.42535589616</v>
       </c>
       <c r="E4" t="n">
-        <v>44730.44247545819</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="F4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="G4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="H4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="I4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="J4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="K4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="L4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.93285555081</v>
       </c>
       <c r="M4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="N4" t="n">
-        <v>44730.44247545819</v>
+        <v>44219.93285555079</v>
       </c>
       <c r="O4" t="n">
-        <v>44730.44247545819</v>
+        <v>44219.9328555508</v>
       </c>
       <c r="P4" t="n">
-        <v>44730.4424754582</v>
+        <v>44219.9328555508</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13703.40800099955</v>
+        <v>-13215.48674643979</v>
       </c>
       <c r="C6" t="n">
-        <v>67066.02353054818</v>
+        <v>67553.94478510797</v>
       </c>
       <c r="D6" t="n">
-        <v>67066.02353054821</v>
+        <v>67553.94478510795</v>
       </c>
       <c r="E6" t="n">
-        <v>-181407.2126038527</v>
+        <v>-180896.7029839453</v>
       </c>
       <c r="F6" t="n">
-        <v>164205.1301750999</v>
+        <v>164715.6397950072</v>
       </c>
       <c r="G6" t="n">
-        <v>164205.1301750998</v>
+        <v>164715.6397950074</v>
       </c>
       <c r="H6" t="n">
-        <v>164205.1301750999</v>
+        <v>164715.6397950073</v>
       </c>
       <c r="I6" t="n">
-        <v>164205.1301750998</v>
+        <v>164715.6397950073</v>
       </c>
       <c r="J6" t="n">
-        <v>101145.1875759937</v>
+        <v>101655.6971959011</v>
       </c>
       <c r="K6" t="n">
-        <v>164205.1301750999</v>
+        <v>164715.6397950072</v>
       </c>
       <c r="L6" t="n">
-        <v>164205.1301750999</v>
+        <v>164715.6397950072</v>
       </c>
       <c r="M6" t="n">
-        <v>78186.5963550239</v>
+        <v>78697.10597493127</v>
       </c>
       <c r="N6" t="n">
-        <v>164205.1301750999</v>
+        <v>164715.6397950074</v>
       </c>
       <c r="O6" t="n">
-        <v>164205.1301750998</v>
+        <v>164715.6397950074</v>
       </c>
       <c r="P6" t="n">
-        <v>164205.1301750999</v>
+        <v>164715.6397950073</v>
       </c>
     </row>
   </sheetData>
@@ -26768,7 +26768,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="N3" t="n">
         <v>301.9048087062787</v>
@@ -26796,10 +26796,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="G4" t="n">
         <v>586.1874555205541</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31756,25 +31756,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31783,16 +31783,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31859,7 +31859,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31868,10 +31868,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31993,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32020,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32096,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32105,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33673,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33743,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35416,13 +35416,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35501,10 +35501,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>249.8143946212776</v>
       </c>
       <c r="P12" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
         <v>152.98832074971</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35653,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.52871390503788</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35744,7 +35744,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35981,7 +35981,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,7 +36212,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36437,13 +36437,13 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
         <v>516.8936174628016</v>
@@ -36455,7 +36455,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36683,7 +36683,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36692,7 +36692,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36926,10 +36926,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,7 +37157,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37318,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
         <v>488.1091505729034</v>
@@ -37397,7 +37397,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37479,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K39" t="n">
-        <v>75.52871390503797</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K41" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
         <v>373.423817067563</v>
@@ -37862,7 +37862,7 @@
         <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
-        <v>156.7227248725416</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
@@ -37874,10 +37874,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>432.2802359107712</v>
       </c>
       <c r="N44" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620585</v>
       </c>
       <c r="O44" t="n">
         <v>355.1946887874306</v>
@@ -38102,7 +38102,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M45" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
         <v>516.8936174628016</v>
@@ -38111,10 +38111,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
